--- a/data/output/bases-separadas/-13.xlsx
+++ b/data/output/bases-separadas/-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>10309811000122</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07589982000148</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>17633244000104</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01915625000146</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>18934662000102</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0370915000199</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>30260538000104</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>05767029000117</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>21724837000153</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0965939000190</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>16866361000155</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08161829000188</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>21113438000156</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0949181000105</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>90996356000110</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09549985000183</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>4014852000199</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08202265000184</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10407743000134</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03480031000185</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>7563781000171</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03092662000127</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>21860629000181</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02509322000196</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>94854908000106</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04517835000174</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>10393535000123</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02406845000107</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>9438702000126</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04939735000136</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>9022388000104</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>03476876000105</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>5897758000279</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07170660000160</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>10554782000164</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02912262000239</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>5783842000180</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>03441041000101</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>16830881000108</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05266254000170</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>27252273000180</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05771824000189</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>30223801000187</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>03162430000106</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>14970182000138</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02913489000118</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>5156232000157</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07613964000154</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>3093776000434</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09160745000192</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>4420687000256</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03650747000183</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>320527000527</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>03772503000173</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>30515490000120</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05477516000145</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>325231000175</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02855701000138</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>96504246000170</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>06885761000154</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>82927385000100</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09265212000760</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>6333795000136</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>07570083000101</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>2491558001467</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>03773290000102</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>4534107000170</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>08088938000117</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>3788312000108</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02675877000108</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>10923799000141</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05557879000190</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>87972063000198</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>07193047000168</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>30262049000183</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01184247000178</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>15723680000149</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>05885045000104</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>13238834000181</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>07682638000107</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>16733266000183</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04448545000116</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>30536715000124</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>07394310000187</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>12591003000126</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>05605725000127</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>7059135000171</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09265212000841</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>10226341000133</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>03556257000384</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>23575651000105</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>02717912000104</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>8189056000148</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02064095000132</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>6227199000848</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02476566000110</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>2906702000164</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01761483000100</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>10251429000610</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08005520000107</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>28071445000181</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01679206000152</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>25254924000145</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>02879866000140</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>27898042000148</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>07197145000173</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>14681319000134</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>07538590000150</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>12648292000152</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>06132674001360</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>29016738000129</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>08015333000104</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>24344736000145</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04434762000157</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>2675422000192</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>09109939000163</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>19805451000124</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01824746000182</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>31101620000140</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>05499302000170</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>31022161000100</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>02735385000160</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>29113624000105</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>07489907000105</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>11951058000218</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05528325000165</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>13167002000111</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0839402000184</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>82971797000139</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01127671000857</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1031748000114</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>05688216000105</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>18190026000105</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>06245436000470</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>85523132000150</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>05868513000132</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>34799221000193</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01560671000170</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>3093776000353</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>035631041000160</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>10316658000160</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>07957111000130</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>6001836000197</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>08058379000100</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>10720089000114</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>07346954000108</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>20306945000143</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>09429144000132</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>22900409000105</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>017949019000181</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>66088097000144</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>05556275000120</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>22485929000190</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>04540744000150</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>8056257000177</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>08662696000123</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>29062196000120</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>09391823000240</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>2308405000117</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>06957355000150</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>911432000154</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>02003402002976</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>11255303000171</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0776806000176</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>7050745000104</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0784470000193</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>10984132000159</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>07254175000174</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>23468321000110</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>03509766000194</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>3321111000198</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01976365000119</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>67639807000140</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04921505000140</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>26475948000197</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04160537000170</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>2302100000106</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>08903637000108</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>27390180000111</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>08268378000182</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>9662485000153</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>03869973000150</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>21969144000120</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>03028945000371</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>17596373000170</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>09585750000147</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>23121444000180</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>06009921000100</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>8329509000194</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>03615253000168</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>16678803000130</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>09360662000147</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>14797072000116</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>03518739000188</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>17239439000174</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>03677202000160</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>38648135000211</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0237518000143</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>12911037000150</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0208816000105</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
